--- a/OutWeb/Content/ExcelTemp/Apply.xlsx
+++ b/OutWeb/Content/ExcelTemp/Apply.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\TYBA\OutWeb\Content\ExcelTemp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="8460" windowHeight="3375"/>
   </bookViews>
@@ -16,31 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>隊員</t>
   </si>
   <si>
-    <t>xxxxxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隊伍名稱一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隊伍名稱二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>….</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>隊伍名稱三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>隊名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -63,21 +52,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>XXX
-80.1.1
-h123456789</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>XXX比賽報名明細表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>107-ABC-0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -96,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -295,6 +274,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -342,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,9 +357,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,6 +409,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,7 +608,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -610,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -630,11 +646,9 @@
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B2" s="9"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -652,31 +666,31 @@
     </row>
     <row r="3" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>0</v>
@@ -700,53 +714,31 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="53.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -765,9 +757,7 @@
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -786,9 +776,7 @@
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
